--- a/doc/牌号、钢印标识生产信息20190104.xlsx
+++ b/doc/牌号、钢印标识生产信息20190104.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1369,36 +1369,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
+    <t>09X11</t>
   </si>
   <si>
     <t>X11xxxx</t>
@@ -1426,36 +1397,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
+    <t>09X12</t>
   </si>
   <si>
     <t>X12xxxx</t>
@@ -1483,36 +1425,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
+    <t>09X13</t>
   </si>
   <si>
     <t>X13xxxx</t>
@@ -1540,36 +1453,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14</t>
-    </r>
+    <t>09X14</t>
   </si>
   <si>
     <t>X14xxxx</t>
@@ -1597,36 +1481,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
+    <t>09X15</t>
   </si>
   <si>
     <t>X15xxxx</t>
@@ -2397,7 +2252,7 @@
     <t>50#</t>
   </si>
   <si>
-    <t>9X50</t>
+    <t>09X50</t>
   </si>
   <si>
     <t>X50xxxx</t>
@@ -2406,7 +2261,7 @@
     <t>51#</t>
   </si>
   <si>
-    <t>9X51</t>
+    <t>09X51</t>
   </si>
   <si>
     <t>52#</t>
@@ -3476,10 +3331,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3520,15 +3375,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3542,8 +3427,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3557,9 +3443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3567,16 +3452,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3587,31 +3473,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3633,31 +3511,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3719,13 +3574,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3737,43 +3682,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3791,97 +3736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3893,13 +3754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4082,26 +3937,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4122,31 +3986,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4171,11 +4020,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4187,10 +4042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4199,133 +4054,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4998,9 +4853,9 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:F28"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6063,7 +5918,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6382,9 +6237,9 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7440,8 +7295,8 @@
   </sheetPr>
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C118" sqref="$A118:$XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/doc/牌号、钢印标识生产信息20190104.xlsx
+++ b/doc/牌号、钢印标识生产信息20190104.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600">
   <si>
     <t>机台号</t>
   </si>
@@ -2682,6 +2682,21 @@
     <t>06120XX</t>
   </si>
   <si>
+    <r>
+      <t>云烟（紫）、云烟（印象）、云烟（硬云龙）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云烟（朱砂红出口）</t>
+    </r>
+  </si>
+  <si>
     <t>06220</t>
   </si>
   <si>
@@ -2721,6 +2736,31 @@
     <t>06122XX</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">云烟（乌镇之恋）、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">云烟（软大重九9+1）半成品 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云烟（大重九9+1）</t>
+    </r>
+  </si>
+  <si>
     <t>06222</t>
   </si>
   <si>
@@ -3021,7 +3061,19 @@
     <t>06147XX</t>
   </si>
   <si>
-    <t>茶花（94mm） 红河（去野）、钓鱼台（硬景泰蓝94mm）、钓鱼台（黄景泰蓝出口）、钓鱼台（硬蓝景浅出口DF）</t>
+    <r>
+      <t>茶花（94mm） 红河（去野）、钓鱼台（硬景泰蓝94mm）、钓鱼台（黄景泰蓝出口）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钓鱼台（硬蓝景浅出口DF）</t>
+    </r>
   </si>
   <si>
     <t>06247</t>
@@ -3330,13 +3382,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3374,46 +3426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3428,33 +3442,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3473,6 +3464,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3481,7 +3495,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3495,14 +3531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3511,8 +3539,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3520,6 +3572,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3574,25 +3640,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3610,7 +3682,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3623,6 +3731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3652,42 +3766,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3700,25 +3778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3742,19 +3808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3937,35 +4003,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3985,17 +4057,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4010,30 +4100,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4042,10 +4108,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4054,133 +4120,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4555,6 +4621,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4855,7 +4926,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5918,7 +5989,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="$A17:$XFD17"/>
+      <selection activeCell="C17" sqref="$A7:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7295,8 +7366,8 @@
   </sheetPr>
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C118" sqref="$A118:$XFD118"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111:F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8243,7 +8314,7 @@
         <v>149</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="G59" s="9"/>
     </row>
@@ -8251,10 +8322,10 @@
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="27"/>
@@ -8264,10 +8335,10 @@
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="28"/>
@@ -8275,22 +8346,22 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="1:7">
       <c r="A62" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="G62" s="9"/>
     </row>
@@ -8298,10 +8369,10 @@
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="27"/>
@@ -8311,10 +8382,10 @@
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="22" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="28"/>
@@ -8328,16 +8399,16 @@
         <v>28</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="G65" s="9"/>
     </row>
@@ -8345,10 +8416,10 @@
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="27"/>
@@ -8358,10 +8429,10 @@
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="22" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="28"/>
@@ -8369,16 +8440,16 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="1:7">
       <c r="A68" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>149</v>
@@ -8392,10 +8463,10 @@
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="22" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="27"/>
@@ -8405,10 +8476,10 @@
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="27"/>
@@ -8418,10 +8489,10 @@
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="22" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="28"/>
@@ -8429,16 +8500,16 @@
     </row>
     <row r="72" s="1" customFormat="1" spans="1:7">
       <c r="A72" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>149</v>
@@ -8452,10 +8523,10 @@
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="22" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="27"/>
@@ -8465,10 +8536,10 @@
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="22" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="27"/>
@@ -8478,10 +8549,10 @@
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="22" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="28"/>
@@ -8489,16 +8560,16 @@
     </row>
     <row r="76" s="1" customFormat="1" spans="1:7">
       <c r="A76" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>149</v>
@@ -8512,10 +8583,10 @@
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="22" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="27"/>
@@ -8525,10 +8596,10 @@
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="28"/>
@@ -8536,16 +8607,16 @@
     </row>
     <row r="79" s="1" customFormat="1" spans="1:7">
       <c r="A79" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>149</v>
@@ -8559,10 +8630,10 @@
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
       <c r="C80" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="27"/>
@@ -8572,10 +8643,10 @@
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="27"/>
@@ -8585,10 +8656,10 @@
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="28"/>
@@ -8596,16 +8667,16 @@
     </row>
     <row r="83" s="1" customFormat="1" spans="1:7">
       <c r="A83" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>149</v>
@@ -8619,10 +8690,10 @@
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
       <c r="C84" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="27"/>
@@ -8632,10 +8703,10 @@
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="28"/>
@@ -8649,10 +8720,10 @@
         <v>28</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>149</v>
@@ -8666,10 +8737,10 @@
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="27"/>
@@ -8679,10 +8750,10 @@
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="28"/>
@@ -8696,10 +8767,10 @@
         <v>28</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>149</v>
@@ -8713,10 +8784,10 @@
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="27"/>
@@ -8726,10 +8797,10 @@
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="27"/>
@@ -8739,10 +8810,10 @@
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="28"/>
@@ -8750,16 +8821,16 @@
     </row>
     <row r="93" s="1" customFormat="1" spans="1:7">
       <c r="A93" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>89</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>21</v>
@@ -8773,10 +8844,10 @@
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="27"/>
@@ -8786,10 +8857,10 @@
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E95" s="25"/>
       <c r="F95" s="28"/>
@@ -8797,16 +8868,16 @@
     </row>
     <row r="96" s="1" customFormat="1" spans="1:7">
       <c r="A96" s="21" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>89</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>21</v>
@@ -8820,10 +8891,10 @@
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
       <c r="C97" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="27"/>
@@ -8833,10 +8904,10 @@
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="28"/>
@@ -8850,10 +8921,10 @@
         <v>89</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E99" s="21" t="s">
         <v>21</v>
@@ -8867,10 +8938,10 @@
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
       <c r="C100" s="11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="27"/>
@@ -8880,10 +8951,10 @@
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="28"/>
@@ -8897,10 +8968,10 @@
         <v>89</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E102" s="21" t="s">
         <v>21</v>
@@ -8914,10 +8985,10 @@
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="27"/>
@@ -8927,10 +8998,10 @@
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="28"/>
@@ -8941,13 +9012,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>21</v>
@@ -8961,10 +9032,10 @@
       <c r="A106" s="24"/>
       <c r="B106" s="24"/>
       <c r="C106" s="11" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="27"/>
@@ -8974,10 +9045,10 @@
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="28"/>
@@ -8991,10 +9062,10 @@
         <v>89</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>21</v>
@@ -9008,10 +9079,10 @@
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="27"/>
@@ -9021,10 +9092,10 @@
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="28"/>
@@ -9038,16 +9109,16 @@
         <v>28</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G111" s="9"/>
     </row>
@@ -9055,10 +9126,10 @@
       <c r="A112" s="24"/>
       <c r="B112" s="8"/>
       <c r="C112" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="9"/>
@@ -9068,10 +9139,10 @@
       <c r="A113" s="25"/>
       <c r="B113" s="10"/>
       <c r="C113" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="29"/>
@@ -9085,10 +9156,10 @@
         <v>23</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D114" s="112" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E114" s="30" t="s">
         <v>246</v>
@@ -9102,10 +9173,10 @@
       <c r="A115" s="24"/>
       <c r="B115" s="8"/>
       <c r="C115" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D115" s="112" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
@@ -9115,10 +9186,10 @@
       <c r="A116" s="24"/>
       <c r="B116" s="8"/>
       <c r="C116" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D116" s="112" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
@@ -9128,10 +9199,10 @@
       <c r="A117" s="25"/>
       <c r="B117" s="10"/>
       <c r="C117" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D117" s="112" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E117" s="32"/>
       <c r="F117" s="32"/>
@@ -9145,16 +9216,16 @@
         <v>23</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G118" s="9"/>
     </row>
@@ -9162,10 +9233,10 @@
       <c r="A119" s="24"/>
       <c r="B119" s="8"/>
       <c r="C119" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="31"/>
@@ -9175,10 +9246,10 @@
       <c r="A120" s="24"/>
       <c r="B120" s="8"/>
       <c r="C120" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="31"/>
@@ -9188,10 +9259,10 @@
       <c r="A121" s="25"/>
       <c r="B121" s="10"/>
       <c r="C121" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="32"/>
@@ -9205,10 +9276,10 @@
         <v>54</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>21</v>
@@ -9222,10 +9293,10 @@
       <c r="A123" s="24"/>
       <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -9235,10 +9306,10 @@
       <c r="A124" s="25"/>
       <c r="B124" s="10"/>
       <c r="C124" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -9252,10 +9323,10 @@
         <v>54</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>21</v>
@@ -9269,10 +9340,10 @@
       <c r="A126" s="24"/>
       <c r="B126" s="8"/>
       <c r="C126" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -9282,10 +9353,10 @@
       <c r="A127" s="25"/>
       <c r="B127" s="10"/>
       <c r="C127" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -9299,10 +9370,10 @@
         <v>58</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>21</v>
@@ -9316,10 +9387,10 @@
       <c r="A129" s="24"/>
       <c r="B129" s="8"/>
       <c r="C129" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -9329,10 +9400,10 @@
       <c r="A130" s="25"/>
       <c r="B130" s="10"/>
       <c r="C130" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -9346,10 +9417,10 @@
         <v>58</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>21</v>
@@ -9363,10 +9434,10 @@
       <c r="A132" s="24"/>
       <c r="B132" s="8"/>
       <c r="C132" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -9376,10 +9447,10 @@
       <c r="A133" s="25"/>
       <c r="B133" s="10"/>
       <c r="C133" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -9393,10 +9464,10 @@
         <v>58</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>21</v>
@@ -9410,10 +9481,10 @@
       <c r="A135" s="24"/>
       <c r="B135" s="8"/>
       <c r="C135" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -9423,10 +9494,10 @@
       <c r="A136" s="25"/>
       <c r="B136" s="10"/>
       <c r="C136" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -9440,10 +9511,10 @@
         <v>58</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>21</v>
@@ -9457,10 +9528,10 @@
       <c r="A138" s="24"/>
       <c r="B138" s="8"/>
       <c r="C138" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
@@ -9470,10 +9541,10 @@
       <c r="A139" s="25"/>
       <c r="B139" s="10"/>
       <c r="C139" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -9487,10 +9558,10 @@
         <v>54</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>11</v>
@@ -9504,10 +9575,10 @@
       <c r="A141" s="24"/>
       <c r="B141" s="8"/>
       <c r="C141" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -9517,10 +9588,10 @@
       <c r="A142" s="25"/>
       <c r="B142" s="10"/>
       <c r="C142" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
@@ -9534,10 +9605,10 @@
         <v>54</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>11</v>
@@ -9551,10 +9622,10 @@
       <c r="A144" s="24"/>
       <c r="B144" s="8"/>
       <c r="C144" s="33" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -9564,10 +9635,10 @@
       <c r="A145" s="25"/>
       <c r="B145" s="10"/>
       <c r="C145" s="33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -9578,13 +9649,13 @@
         <v>108</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>21</v>
@@ -9598,10 +9669,10 @@
       <c r="A147" s="24"/>
       <c r="B147" s="8"/>
       <c r="C147" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="31"/>
@@ -9611,10 +9682,10 @@
       <c r="A148" s="24"/>
       <c r="B148" s="8"/>
       <c r="C148" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="31"/>
@@ -9624,10 +9695,10 @@
       <c r="A149" s="25"/>
       <c r="B149" s="10"/>
       <c r="C149" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="32"/>
@@ -9638,19 +9709,19 @@
         <v>111</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G150" s="9"/>
     </row>
@@ -9658,10 +9729,10 @@
       <c r="A151" s="24"/>
       <c r="B151" s="8"/>
       <c r="C151" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="9"/>
@@ -9671,10 +9742,10 @@
       <c r="A152" s="24"/>
       <c r="B152" s="8"/>
       <c r="C152" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="9"/>
@@ -9684,10 +9755,10 @@
       <c r="A153" s="25"/>
       <c r="B153" s="10"/>
       <c r="C153" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="29"/>
@@ -9698,13 +9769,13 @@
         <v>115</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>21</v>
@@ -9718,10 +9789,10 @@
       <c r="A155" s="24"/>
       <c r="B155" s="8"/>
       <c r="C155" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="31"/>
@@ -9731,10 +9802,10 @@
       <c r="A156" s="24"/>
       <c r="B156" s="8"/>
       <c r="C156" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="31"/>
@@ -9744,10 +9815,10 @@
       <c r="A157" s="25"/>
       <c r="B157" s="10"/>
       <c r="C157" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="32"/>
@@ -9758,13 +9829,13 @@
         <v>119</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>21</v>
@@ -9778,10 +9849,10 @@
       <c r="A159" s="24"/>
       <c r="B159" s="8"/>
       <c r="C159" s="10" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
@@ -9791,10 +9862,10 @@
       <c r="A160" s="25"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>

--- a/doc/牌号、钢印标识生产信息20190104.xlsx
+++ b/doc/牌号、钢印标识生产信息20190104.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601">
   <si>
     <t>机台号</t>
   </si>
@@ -2683,6 +2683,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>云烟（紫）、云烟（印象）、云烟（硬云龙）、</t>
     </r>
     <r>
@@ -2737,6 +2744,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">云烟（乌镇之恋）、 </t>
     </r>
     <r>
@@ -3062,6 +3076,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>茶花（94mm） 红河（去野）、钓鱼台（硬景泰蓝94mm）、钓鱼台（黄景泰蓝出口）、</t>
     </r>
     <r>
@@ -3137,6 +3158,9 @@
   </si>
   <si>
     <t>06449XX 06450XX</t>
+  </si>
+  <si>
+    <t>ZB28</t>
   </si>
   <si>
     <t>09150</t>
@@ -3382,11 +3406,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3427,7 +3451,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3442,21 +3535,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3465,30 +3543,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3523,48 +3587,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3640,7 +3664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,25 +3712,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3731,12 +3797,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3785,42 +3845,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4003,11 +4027,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4027,17 +4081,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4065,41 +4124,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4108,10 +4132,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4120,16 +4144,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4138,115 +4162,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7366,8 +7390,8 @@
   </sheetPr>
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111:F113"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9273,13 +9297,13 @@
         <v>251</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>54</v>
+        <v>521</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>21</v>
@@ -9293,10 +9317,10 @@
       <c r="A123" s="24"/>
       <c r="B123" s="8"/>
       <c r="C123" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -9306,10 +9330,10 @@
       <c r="A124" s="25"/>
       <c r="B124" s="10"/>
       <c r="C124" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -9320,13 +9344,13 @@
         <v>254</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>54</v>
+        <v>521</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>21</v>
@@ -9340,10 +9364,10 @@
       <c r="A126" s="24"/>
       <c r="B126" s="8"/>
       <c r="C126" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -9353,10 +9377,10 @@
       <c r="A127" s="25"/>
       <c r="B127" s="10"/>
       <c r="C127" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -9370,10 +9394,10 @@
         <v>58</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>21</v>
@@ -9387,10 +9411,10 @@
       <c r="A129" s="24"/>
       <c r="B129" s="8"/>
       <c r="C129" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -9400,10 +9424,10 @@
       <c r="A130" s="25"/>
       <c r="B130" s="10"/>
       <c r="C130" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -9417,10 +9441,10 @@
         <v>58</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>21</v>
@@ -9434,10 +9458,10 @@
       <c r="A132" s="24"/>
       <c r="B132" s="8"/>
       <c r="C132" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -9447,10 +9471,10 @@
       <c r="A133" s="25"/>
       <c r="B133" s="10"/>
       <c r="C133" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -9464,10 +9488,10 @@
         <v>58</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>21</v>
@@ -9481,10 +9505,10 @@
       <c r="A135" s="24"/>
       <c r="B135" s="8"/>
       <c r="C135" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -9494,10 +9518,10 @@
       <c r="A136" s="25"/>
       <c r="B136" s="10"/>
       <c r="C136" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -9511,10 +9535,10 @@
         <v>58</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>21</v>
@@ -9528,10 +9552,10 @@
       <c r="A138" s="24"/>
       <c r="B138" s="8"/>
       <c r="C138" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
@@ -9541,10 +9565,10 @@
       <c r="A139" s="25"/>
       <c r="B139" s="10"/>
       <c r="C139" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -9558,10 +9582,10 @@
         <v>54</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>11</v>
@@ -9575,10 +9599,10 @@
       <c r="A141" s="24"/>
       <c r="B141" s="8"/>
       <c r="C141" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -9588,10 +9612,10 @@
       <c r="A142" s="25"/>
       <c r="B142" s="10"/>
       <c r="C142" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
@@ -9605,10 +9629,10 @@
         <v>54</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>11</v>
@@ -9622,10 +9646,10 @@
       <c r="A144" s="24"/>
       <c r="B144" s="8"/>
       <c r="C144" s="33" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -9635,10 +9659,10 @@
       <c r="A145" s="25"/>
       <c r="B145" s="10"/>
       <c r="C145" s="33" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -9652,10 +9676,10 @@
         <v>484</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>21</v>
@@ -9669,10 +9693,10 @@
       <c r="A147" s="24"/>
       <c r="B147" s="8"/>
       <c r="C147" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="31"/>
@@ -9682,10 +9706,10 @@
       <c r="A148" s="24"/>
       <c r="B148" s="8"/>
       <c r="C148" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="31"/>
@@ -9695,10 +9719,10 @@
       <c r="A149" s="25"/>
       <c r="B149" s="10"/>
       <c r="C149" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="32"/>
@@ -9712,16 +9736,16 @@
         <v>484</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G150" s="9"/>
     </row>
@@ -9729,10 +9753,10 @@
       <c r="A151" s="24"/>
       <c r="B151" s="8"/>
       <c r="C151" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="9"/>
@@ -9742,10 +9766,10 @@
       <c r="A152" s="24"/>
       <c r="B152" s="8"/>
       <c r="C152" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="9"/>
@@ -9755,10 +9779,10 @@
       <c r="A153" s="25"/>
       <c r="B153" s="10"/>
       <c r="C153" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="29"/>
@@ -9772,10 +9796,10 @@
         <v>484</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>21</v>
@@ -9789,10 +9813,10 @@
       <c r="A155" s="24"/>
       <c r="B155" s="8"/>
       <c r="C155" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="31"/>
@@ -9802,10 +9826,10 @@
       <c r="A156" s="24"/>
       <c r="B156" s="8"/>
       <c r="C156" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="31"/>
@@ -9815,10 +9839,10 @@
       <c r="A157" s="25"/>
       <c r="B157" s="10"/>
       <c r="C157" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="32"/>
@@ -9832,10 +9856,10 @@
         <v>484</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>21</v>
@@ -9849,10 +9873,10 @@
       <c r="A159" s="24"/>
       <c r="B159" s="8"/>
       <c r="C159" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
@@ -9862,10 +9886,10 @@
       <c r="A160" s="25"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>

--- a/doc/牌号、钢印标识生产信息20190104.xlsx
+++ b/doc/牌号、钢印标识生产信息20190104.xlsx
@@ -3337,8 +3337,30 @@
     <t>06159XX</t>
   </si>
   <si>
-    <t xml:space="preserve">云烟（细支珍品）、云烟（细支云龙）、云烟（细支大重九CEO）
+    <r>
+      <t>云烟（细支珍品）、云烟（细支云龙）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云烟（细支大重九CEO）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
   </si>
   <si>
     <t>06259</t>
@@ -3406,11 +3428,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3451,30 +3473,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3511,48 +3517,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3584,6 +3566,46 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3664,31 +3686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3718,13 +3716,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3736,13 +3776,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3760,67 +3824,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3839,12 +3867,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4052,6 +4074,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4080,50 +4146,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4132,10 +4154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4144,133 +4166,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4948,7 +4970,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD20"/>
     </sheetView>
@@ -7390,8 +7412,8 @@
   </sheetPr>
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:B124"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150:F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
